--- a/medicine/Handicap/Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport/Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport.xlsx
+++ b/medicine/Handicap/Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport/Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le brevet professionnel de la jeunesse, de l’éducation populaire et du sport (BP JEPS) est un diplôme d'État[1],[2] de niveau 4 enregistré au Répertoire National des Certifications Professionnelles (RNCP)[3]. Ce dernier est délivré au titre d'une spécialité (métier d'animateur socioculturel ou d'éducateur sportif).
-Ce diplôme atteste l'acquisition des compétences techniques, éducatives et professionnelles indispensable d'un animateur socioculturel ou d' un éducateur sportif de niveau supérieur dans les domaines des activités physiques, sportives, socio-éducatives ou culturelles[4]. 
-Créé en 2001 en France, dans le domaine sportif, et dans le domaine de la jeunesse et de l'éducation populaire (animation socioculturelle), il remplace le brevet d'État d'éducateur sportif (BEES) de 1er degré le brevet d'État d'animateur technicien de la jeunesse et de l'éducation populaire (BEATEP), (créé en 1986) . Les prérogatives des anciens diplômes remplacés par les nouveaux BP sont valables à vie. Avant l'entrée en formation professionnelle, les casiers judiciaires B2, B3 et le FIJAIS sont vérifiés par les services de l'État. Le diplôme permet à son titulaire d'exercer une profession en autonomie complète et réglementée d'éducateur sportif ou d'animateur socioculturel [5],[6], telle que :
+Le brevet professionnel de la jeunesse, de l’éducation populaire et du sport (BP JEPS) est un diplôme d'État, de niveau 4 enregistré au Répertoire National des Certifications Professionnelles (RNCP). Ce dernier est délivré au titre d'une spécialité (métier d'animateur socioculturel ou d'éducateur sportif).
+Ce diplôme atteste l'acquisition des compétences techniques, éducatives et professionnelles indispensable d'un animateur socioculturel ou d' un éducateur sportif de niveau supérieur dans les domaines des activités physiques, sportives, socio-éducatives ou culturelles. 
+Créé en 2001 en France, dans le domaine sportif, et dans le domaine de la jeunesse et de l'éducation populaire (animation socioculturelle), il remplace le brevet d'État d'éducateur sportif (BEES) de 1er degré le brevet d'État d'animateur technicien de la jeunesse et de l'éducation populaire (BEATEP), (créé en 1986) . Les prérogatives des anciens diplômes remplacés par les nouveaux BP sont valables à vie. Avant l'entrée en formation professionnelle, les casiers judiciaires B2, B3 et le FIJAIS sont vérifiés par les services de l'État. Le diplôme permet à son titulaire d'exercer une profession en autonomie complète et réglementée d'éducateur sportif ou d'animateur socioculturel  telle que :
 Enseigner, initier en autonomie pédagogique une pratique sportive et entraîner jusqu’au premier niveau de compétition (BP JEPS : spécialités sportives) ;
-Animateur socioculturel et socio-éducatif généraliste avec une fonction de directeur en accueil collectif de mineurs[7](ACM), (BP JEPS spécialité/mention : Loisirs Tous Publics -LTP-) ;
+Animateur socioculturel et socio-éducatif généraliste avec une fonction de directeur en accueil collectif de mineurs(ACM), (BP JEPS spécialité/mention : Loisirs Tous Publics -LTP-) ;
 Médiateur social et Animateur social dans le champ de l'intervention sociale (BP JEPS  animation sociale). Diplôme co-délivré par le Ministère de la jeunesse et des sports et des affaires sanitaires et sociales ;
 toutes les spécialités du Brevet d'aptitude professionnelle d'assistant animateur technicien (BAPAAT, du CP JEPS niveau III : CAP-BEP), du BP JEPS et du Certificat de qualification professionnelle (CQP) animateur périscolaire permettent d'animer de façon permanente en accueil collectif de mineurs (ACM).
 Le titulaire du diplôme du BP JEPS peut se présenter au concours de la fonction publique territoriale (éducateur sportif ETAPS ou  animateur territorial) ou de la fonction publique hospitalière en catégorie B, selon la spécialité et mention du diplôme obtenu.
-Chaque diplôme (spécialité et mention) du BP JEPS est créé par un arrêté ministériel et publié au Journal officiel de la République française (JORF) ainsi que sur le site Légifrance[8], il est également inscrit au RNCP. Pour chaque spécialité/mention du diplôme, figure un référentiel professionnel, de certification et d'épreuves certificatives, disponible sur le site du ministère de la jeunesse et des sports[9]. Certains BP JEPS, sont délivrés par deux ministères de tutelle ex: ministère des affaires sanitaires et sociales, ministère de l'agriculture, etc.
+Chaque diplôme (spécialité et mention) du BP JEPS est créé par un arrêté ministériel et publié au Journal officiel de la République française (JORF) ainsi que sur le site Légifrance, il est également inscrit au RNCP. Pour chaque spécialité/mention du diplôme, figure un référentiel professionnel, de certification et d'épreuves certificatives, disponible sur le site du ministère de la jeunesse et des sports. Certains BP JEPS, sont délivrés par deux ministères de tutelle ex: ministère des affaires sanitaires et sociales, ministère de l'agriculture, etc.
 </t>
         </is>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,9 +534,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les spécialités et mentions du sport du BP JEPS
-Domaine du sport
-Activités aquatiques
+          <t>Les spécialités et mentions du sport du BP JEPS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Domaine du sport</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activités aquatiques
 Activités aquatiques et de la natation (AAN)
 Activités de randonnée
 Judo-ju-jitsu
@@ -549,16 +569,6 @@
 			BPJEPS mention Vol libre parapente et deltaplane stagiaires en formation.
 			Enseignement, jusqu'au premier niveau de compétition, le moniteur d'équitation peut faire passer des galops et enseigner dans le domaine équestre.
 			L'éducateur sportif en gym peut enseigner (tous publics) jusqu'au 1er niveau de compétition.
-Les spécialités et mentions de l'animation socioculturelle du BP JEPS
-Domaine de la jeunesse et de l'éducation populaire
-Loisirs tous publics - LTP [10]
-Éducation à l’environnement vers un développement durable[11]
-Animation culturelle
-Animation sociale[12]
-Dans le domaine de l'animation socioculturelle, le BPJEPS a aussi remplacé le BEATEP
-Certificats professionnel complémentaires
-Le diplôme d'État du BP JEPS peut être complété par des qualifications supplémentaires, unités capitalisables complémentaires (UCC) et certificats de spécialisation (CS) — qui sont des regroupements de plusieurs UCC[13].  
-En 2016, les UCC et les CS deviennent des certificats complémentaires, cette évolution permettra d'avoir une meilleure lisibilité des diplômes complémentaires des différentes filières. Cette formation, basée sur le principe de l'alternance (cours et employeur), permet aux diplômés d'élargir leurs compétences professionnelles dans le domaine du sport ou de l'animation socioculturelle. Par exemple : activité d'escalade ; sauvetage et sécurité en milieu aquatique ; tir sportif ; tir à l'arc ; animation et maintien de l'autonomie de la personne ; animation et insertion sociale ; direction d'un accueil collectif de mineurs (ACM), etc.
 </t>
         </is>
       </c>
@@ -569,7 +579,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,10 +594,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Spécialités et métiers</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les spécialités et mentions de l'animation socioculturelle du BP JEPS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Domaine de la jeunesse et de l'éducation populaire</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loisirs tous publics - LTP 
+Éducation à l’environnement vers un développement durable
+Animation culturelle
+Animation sociale
+Dans le domaine de l'animation socioculturelle, le BPJEPS a aussi remplacé le BEATEP
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spécialités et métiers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Certificats professionnel complémentaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diplôme d'État du BP JEPS peut être complété par des qualifications supplémentaires, unités capitalisables complémentaires (UCC) et certificats de spécialisation (CS) — qui sont des regroupements de plusieurs UCC.  
+En 2016, les UCC et les CS deviennent des certificats complémentaires, cette évolution permettra d'avoir une meilleure lisibilité des diplômes complémentaires des différentes filières. Cette formation, basée sur le principe de l'alternance (cours et employeur), permet aux diplômés d'élargir leurs compétences professionnelles dans le domaine du sport ou de l'animation socioculturelle. Par exemple : activité d'escalade ; sauvetage et sécurité en milieu aquatique ; tir sportif ; tir à l'arc ; animation et maintien de l'autonomie de la personne ; animation et insertion sociale ; direction d'un accueil collectif de mineurs (ACM), etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Formation et épreuves du diplôme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’accès à la formation est soumis aux PSC 1 (minimum), demande un bon niveau de pratique professionnelle, casier judiciaire et des exigences préalables selon la mention du BP JEPS choisi : conditions de diplômes, certificat médical, et expériences. En deuxième temps, des épreuves de sélection sont organisées par les organismes de formation : test pratique, épreuves écrites (deux  à trois heures en moyenne) et un entretien oral mettant en perspective les motivations du candidat pour la formation et le métier.   
 La formation BP JEPS dure en moyenne 18 mois en alternance. Il faut compter à peu près quatre examens à passer sur l'ensemble du cursus. Pour valider ses unités de compétences professionnelles (UC), il faut élaborer des bilans d'environ 20 pages (sans compter les annexes) à soutenir devant un jury. Une épreuve de mise en situation professionnelle (autrement dit le « face à face pédagogique avec son public ») devant un jury fait également partie de l’examen en structure d'alternance.   
@@ -598,66 +693,73 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Évolution des diplômes en 2016</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À compter du 1er septembre 2016, le BP JEPS évolue, une spécialité " animateur " et une spécialité " éducateur sportif " du Brevet Professionnel de la Jeunesse de l'Éducation populaire et du Sport sont créées et le nombre d'unités capitalisables est réduit de 10 à 4 dont deux sont transversales, quelle que soit la spécialité. À l'instar du DEJEPS et du DESJEPS, cette réforme permet de mieux distinguer les différentes filières professionnelles et de renforcer la lisibilité des référentiels. Les référentiels des nouveaux BP JEPS, sont renforcés en compétences et prérogatives professionnelles (voir l'arrêté de création des diplômes sur le site du ministère)[14],[15].
-La quasi-totalité des anciens titulaires du diplôme du BP obtiennent de droit l'équivalence totale des nouveaux BP JEPS[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À compter du 1er septembre 2016, le BP JEPS évolue, une spécialité " animateur " et une spécialité " éducateur sportif " du Brevet Professionnel de la Jeunesse de l'Éducation populaire et du Sport sont créées et le nombre d'unités capitalisables est réduit de 10 à 4 dont deux sont transversales, quelle que soit la spécialité. À l'instar du DEJEPS et du DESJEPS, cette réforme permet de mieux distinguer les différentes filières professionnelles et de renforcer la lisibilité des référentiels. Les référentiels des nouveaux BP JEPS, sont renforcés en compétences et prérogatives professionnelles (voir l'arrêté de création des diplômes sur le site du ministère),.
+La quasi-totalité des anciens titulaires du diplôme du BP obtiennent de droit l'équivalence totale des nouveaux BP JEPS.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diplôme du BP JEPS spécialité : Éducateur sportif</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation et prérogatives / Technicien du sport
-L'éducateur sportif enseigne et encadre une activité sportive en particulier. Ses tâches sont donc naturellement différentes selon la discipline enseignée.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation et prérogatives / Technicien du sport</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'éducateur sportif enseigne et encadre une activité sportive en particulier. Ses tâches sont donc naturellement différentes selon la discipline enseignée.
 Qu'il enseigne un sport à ses élèves pour le loisir ou en vue d'une compétition, en cours collectifs ou en cours individuels, l’éducateur sportif exerce essentiellement auprès de publics variés (petite enfance, enfants, adolescents, adultes, troisième âge, handicapés, etc.).
 Quel que soit son sport de prédilection, l'éducateur sportif est un passionné. Le métier est soumis à des conditions de diplômes.
 Les missions de l'éducateur sportif titulaire du BP JEPS sont multiples :
@@ -668,9 +770,43 @@
 il anime ses cours par des exercices à la fois ludiques et formateurs, adaptés au niveau et aux capacités du public auquel il s'adresse, il analyse et corrige les gestes nécessitant plus d'efforts ;
 qu'ils soient débutants ou confirmés, l'éducateur sportif accompagne de façon régulière les pratiquants dans leur progression ;
 il est aussi amené à suivre des tâches de gestion financière, administratives et d'organisation de la structure ;
-selon les mentions choisies, il peut exercer à son compte en tant qu’indépendant ou créer sa structure.
-Contenu de la formation d'éducateur sportif
-Modules théoriques et pratiques (+ de 1200 h)
+selon les mentions choisies, il peut exercer à son compte en tant qu’indépendant ou créer sa structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diplôme du BP JEPS spécialité : Éducateur sportif</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contenu de la formation d'éducateur sportif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Modules théoriques et pratiques (+ de 1200 h)
 Anatomie, bio-mécanique, physiologie
 Organisation de l'entraînement
 Technique d'éducation sportive
@@ -688,34 +824,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Diplôme du BP JEPS spécialité : Animateur (socioculturel)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation et prérogatives / Technicien de la jeunesse et de l'éducation populaire
-Les missions de l'animateur socioculturel et socio-éducatif titulaire du BP JEPS sont multiples :  
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Présentation et prérogatives / Technicien de la jeunesse et de l'éducation populaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les missions de l'animateur socioculturel et socio-éducatif titulaire du BP JEPS sont multiples :  
 Il crée une relation de confiance et assure un service d'écoute ;
 Il organise et encadre la vie quotidienne et collective des mineurs ou des personnes qu'ils accueillent ainsi que les différents temps de vie ;
 Il exerce en autonomie son activité professionnelle, en utilisant un ou des supports dans le champ des activités éducatives, culturelles et sociales dans la limite des cadres réglementaires ;
@@ -734,9 +875,47 @@
 Travaillant parfois avec des publics difficiles ou en grande souffrance, l'animateur doit faire preuve de psychologie et de mesure pour aborder les problèmes et les résoudre progressivement.
 Ce métier exige de la pédagogie, de la patience, tout particulièrement quand les publics sont des enfants ou des personnes en situation fragile (personne âgée, handicap…).
 Le BP JEPS Loisirs Tous Publics comprend une épreuve sur la direction d'un ACM.
-Contenu de la formation d'animateur socioculturel
-Modules pratiques et théoriques (+ de 1200 h)
-Étude des différents courants pédagogiques et des pédagogues ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brevet_professionnel_de_la_jeunesse,_de_l'éducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_professionnel_de_la_jeunesse,_de_l%27%C3%A9ducation_populaire_et_du_sport</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diplôme du BP JEPS spécialité : Animateur (socioculturel)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Contenu de la formation d'animateur socioculturel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Modules pratiques et théoriques (+ de 1200 h)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étude des différents courants pédagogiques et des pédagogues ;
 Psychologie et connaissance du public ;
 Organisation et encadrement de la vie quotidienne ;
 Méthodologie de projet ;
